--- a/CaVaTeCo/form_k_social.xlsx
+++ b/CaVaTeCo/form_k_social.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CaVaTeCo_ODK\odk_forms_working\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CLCR_Moz_Coastal\ODK\odk_forms_clcr_lot_1_avante\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B8ED1E-977B-41C3-B4A2-8CEC5D26DB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD49118-88F9-46EA-8D8C-194DA71DBA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -528,9 +528,6 @@
     <t>Tem que indicar aqui todas áreas que são identificadas pela comunidade</t>
   </si>
   <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
-  </si>
-  <si>
     <t>select_one_from_file enum_names.csv</t>
   </si>
   <si>
@@ -604,6 +601,9 @@
   </si>
   <si>
     <t>"CLCR Lot 1 Avante"</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1153,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1295,7 +1295,6 @@
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1883,11 +1882,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1996,10 +1995,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="N6" s="68" t="s">
         <v>183</v>
-      </c>
-      <c r="N6" s="68" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2010,7 +2009,7 @@
         <v>144</v>
       </c>
       <c r="N7" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2044,7 +2043,7 @@
         <v>82</v>
       </c>
       <c r="O10" s="58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2072,7 +2071,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -2083,7 +2082,7 @@
         <v>147</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>19</v>
@@ -2091,7 +2090,7 @@
     </row>
     <row r="15" spans="1:16" s="33" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="66" t="s">
         <v>148</v>
@@ -2100,7 +2099,7 @@
         <v>149</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" s="65" t="s">
         <v>150</v>
@@ -2117,7 +2116,7 @@
         <v>151</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2162,13 +2161,13 @@
     </row>
     <row r="19" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="63" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" s="62" t="s">
         <v>74</v>
@@ -2182,16 +2181,16 @@
     </row>
     <row r="20" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="63" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="62" t="s">
         <v>181</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>182</v>
       </c>
       <c r="J20" s="62" t="s">
         <v>19</v>
@@ -2202,19 +2201,19 @@
     </row>
     <row r="21" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="C21" s="59" t="s">
         <v>175</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>176</v>
       </c>
       <c r="D21" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="69" t="s">
-        <v>185</v>
+      <c r="G21" s="62" t="s">
+        <v>184</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>19</v>
@@ -2231,10 +2230,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>166</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>167</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>19</v>
@@ -2242,7 +2241,7 @@
     </row>
     <row r="23" spans="1:14" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" s="66" t="s">
         <v>78</v>
@@ -2251,10 +2250,10 @@
         <v>110</v>
       </c>
       <c r="D23" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="65" t="s">
         <v>169</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>170</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>19</v>
@@ -2268,7 +2267,7 @@
         <v>104</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -7524,12 +7523,12 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -7542,8 +7541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7581,7 +7580,7 @@
         <v>153</v>
       </c>
       <c r="C2" s="49">
-        <v>202401</v>
+        <v>202402</v>
       </c>
       <c r="D2" s="56"/>
       <c r="E2" s="51" t="s">
